--- a/カード当てゲーム(反復3)/実装・テスト/非機能要求一覧(反復3) (1).xlsx
+++ b/カード当てゲーム(反復3)/実装・テスト/非機能要求一覧(反復3) (1).xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_A6D4BFAB963E9B261006CB44DB909EFE2C73FD7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5BEAACF-3194-4A6F-82CA-38A91ECC56B1}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git_health\health\カード当てゲーム(反復3)\実装・テスト\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DBDB4A-EAD7-403C-89D5-F490BFB63412}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="375" windowWidth="18285" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -310,18 +315,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック Light"/>
       <charset val="128"/>
       <scheme val="major"/>
     </font>
@@ -344,6 +349,13 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -575,7 +587,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,17 +885,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -892,21 +904,21 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
         <v>1</v>
@@ -917,14 +929,14 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
         <v>3</v>
@@ -935,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -946,7 +958,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
@@ -955,7 +967,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
@@ -964,7 +976,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="C10" s="8" t="s">
@@ -973,7 +985,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -984,7 +996,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
@@ -993,7 +1005,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
@@ -1002,7 +1014,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
@@ -1011,7 +1023,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>15</v>
@@ -1022,7 +1034,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
@@ -1031,7 +1043,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
@@ -1040,7 +1052,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
@@ -1049,7 +1061,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
         <v>20</v>
@@ -1060,7 +1072,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="10"/>
       <c r="C20" s="8" t="s">
@@ -1073,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="10"/>
       <c r="C21" s="8" t="s">
@@ -1082,7 +1094,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="10"/>
       <c r="C22" s="8" t="s">
@@ -1091,7 +1103,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
         <v>27</v>
@@ -1102,7 +1114,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="10"/>
       <c r="C24" s="8" t="s">
@@ -1111,7 +1123,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="10"/>
       <c r="C25" s="8" t="s">
@@ -1120,7 +1132,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
       <c r="C26" s="8" t="s">
@@ -1134,26 +1146,13 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:D6"/>
   </mergeCells>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1337,14 +1336,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3847B89-A65C-49C1-924F-FCCF953CE819}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B390D09-EB8A-4D19-8FDB-18BE82A55F4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2981F6FF-8B6F-4ABD-AB40-7E0E5BD036F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2981F6FF-8B6F-4ABD-AB40-7E0E5BD036F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B390D09-EB8A-4D19-8FDB-18BE82A55F4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3847B89-A65C-49C1-924F-FCCF953CE819}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>